--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/1_Admin/Students_Zoom_Links_GBA_Groups.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/1_Admin/Students_Zoom_Links_GBA_Groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C527B7-7327-4AD4-B525-92B54CD9ABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1D53A-9E33-4F7F-B134-81E30366F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="944" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="164">
   <si>
     <t>GBA Group</t>
   </si>
@@ -528,13 +528,16 @@
   </si>
   <si>
     <t>5th Feb</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +689,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1244,7 +1255,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1323,6 +1334,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1732,7 +1752,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1821,7 @@
     <col min="45" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>111</v>
       </c>
@@ -1815,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>108</v>
       </c>
@@ -1829,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>106</v>
       </c>
@@ -1843,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>104</v>
       </c>
@@ -1857,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>102</v>
       </c>
@@ -1871,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>100</v>
       </c>
@@ -1885,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>98</v>
       </c>
@@ -1899,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>96</v>
       </c>
@@ -1913,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>94</v>
       </c>
@@ -1927,7 +1947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>92</v>
       </c>
@@ -1941,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>90</v>
       </c>
@@ -1955,7 +1975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>88</v>
       </c>
@@ -1969,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>86</v>
       </c>
@@ -1983,7 +2003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>84</v>
       </c>
@@ -1997,21 +2017,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="29">
         <v>102643</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>80</v>
       </c>
@@ -2426,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6A3339-65FA-46B7-AF30-B9BE677A6B19}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/1_Admin/Students_Zoom_Links_GBA_Groups.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/1_Admin/Students_Zoom_Links_GBA_Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\1_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1D53A-9E33-4F7F-B134-81E30366F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C8B75-67E9-4E4C-89E7-5DA1EF825034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26604" yWindow="0" windowWidth="15168" windowHeight="11928" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
   <si>
     <t>GBA Group</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -1769,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>46</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>44</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>42</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>40</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>38</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>36</v>
       </c>
@@ -2355,8 +2358,11 @@
       <c r="D38" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>34</v>
       </c>
@@ -2369,8 +2375,11 @@
       <c r="D39" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>32</v>
       </c>
@@ -2383,8 +2392,11 @@
       <c r="D40" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>30</v>
       </c>
@@ -2397,8 +2409,11 @@
       <c r="D41" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>28</v>
       </c>
@@ -2412,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>26</v>
       </c>
@@ -2426,7 +2441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>24</v>
       </c>
